--- a/ejemplos/Pnigra_CyL-datos_ejemplo.xlsx
+++ b/ejemplos/Pnigra_CyL-datos_ejemplo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Parcelas" sheetId="1" state="visible" r:id="rId2"/>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">Del_Rio_et_al_2006</t>
   </si>
   <si>
-    <t xml:space="preserve">ID_arbol</t>
+    <t xml:space="preserve">ID_Arbol</t>
   </si>
   <si>
     <t xml:space="preserve">especie</t>
@@ -185,6 +185,15 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -195,8 +204,8 @@
   </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -389,8 +398,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -405,8 +414,8 @@
   </sheetPr>
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1692,8 +1701,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
